--- a/Placement_Content/Placement Roadmap.xlsx
+++ b/Placement_Content/Placement Roadmap.xlsx
@@ -350,7 +350,19 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://youtu.be/RhEjmHeDNoA?feature=shared</t>
+      <t xml:space="preserve">https://youtu.be/RhEjmHeDNoA?feature=shared
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">DBMS MCQ: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.interviewbit.com/dbms-mcq/</t>
     </r>
   </si>
   <si>
@@ -383,7 +395,30 @@
       <rPr/>
       <t xml:space="preserve">C++ Tutorial: https://youtu.be/FpfHmAkRVK4?feature=shared
 C++ STL: https://youtu.be/RRVYpIET_RU?feature=shared
-Python Basics: https://youtu.be/vLqTf2b6GZw?feature=shared
+Python Basics: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://youtu.be/vLqTf2b6GZw?feature=shared
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">CN MCQ: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.interviewbit.com/computer-network-mcq/</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">
 Oops in C++: </t>
     </r>
     <r>
@@ -3645,7 +3680,7 @@
       </c>
       <c r="G76" s="24"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="17"/>
+      <c r="J76" s="16"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -3684,7 +3719,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="10"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -31915,12 +31950,12 @@
     <mergeCell ref="J127:J133"/>
     <mergeCell ref="J134:J140"/>
     <mergeCell ref="J57:J63"/>
-    <mergeCell ref="J64:J76"/>
     <mergeCell ref="G64:I77"/>
     <mergeCell ref="G78:G88"/>
     <mergeCell ref="G89:G94"/>
     <mergeCell ref="G95:G98"/>
     <mergeCell ref="G99:G101"/>
+    <mergeCell ref="J64:J77"/>
     <mergeCell ref="J50:J56"/>
     <mergeCell ref="J141:J147"/>
     <mergeCell ref="J78:J101"/>
